--- a/NtierMvc/App_Data/Documents/Excel/MOT F SM 02 ENQUIRY CONTRACT REVIEW SHEET REV. 03.xlsx
+++ b/NtierMvc/App_Data/Documents/Excel/MOT F SM 02 ENQUIRY CONTRACT REVIEW SHEET REV. 03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepak\Downloads\C#\NtierMvc\App_Data\Documents\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F548AAF2-625F-483C-90DC-C49EF018B5C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D528C43D-2B79-4F90-8960-CE5EFCEC0A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,7 +900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1144,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1757,7 +1760,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -2333,7 +2336,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="34"/>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="82" t="s">
         <v>146</v>
       </c>
       <c r="E45" s="8"/>
